--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd6-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd6-Alcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +531,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1475986666666667</v>
+        <v>0.019079</v>
       </c>
       <c r="H2">
-        <v>0.442796</v>
+        <v>0.057237</v>
       </c>
       <c r="I2">
-        <v>0.643004431949535</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.643004431949535</v>
+        <v>1</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="N2">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="O2">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="P2">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="Q2">
-        <v>9.169652773893333</v>
+        <v>0.01084376587866667</v>
       </c>
       <c r="R2">
-        <v>82.52687496503999</v>
+        <v>0.09759389290800001</v>
       </c>
       <c r="S2">
-        <v>0.6260876429839507</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="T2">
-        <v>0.6260876429839507</v>
+        <v>0.4361027177196302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +593,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1475986666666667</v>
+        <v>0.019079</v>
       </c>
       <c r="H3">
-        <v>0.442796</v>
+        <v>0.057237</v>
       </c>
       <c r="I3">
-        <v>0.643004431949535</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.643004431949535</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,276 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="N3">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="O3">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="P3">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="Q3">
-        <v>0.08388937498488891</v>
+        <v>0.01402139876733333</v>
       </c>
       <c r="R3">
-        <v>0.7550043748640001</v>
+        <v>0.126192588906</v>
       </c>
       <c r="S3">
-        <v>0.005727817873891596</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="T3">
-        <v>0.005727817873891596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.1475986666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.442796</v>
-      </c>
-      <c r="I4">
-        <v>0.643004431949535</v>
-      </c>
-      <c r="J4">
-        <v>0.643004431949535</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.110262</v>
-      </c>
-      <c r="N4">
-        <v>3.330786</v>
-      </c>
-      <c r="O4">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="P4">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="Q4">
-        <v>0.1638731908506667</v>
-      </c>
-      <c r="R4">
-        <v>1.474858717656</v>
-      </c>
-      <c r="S4">
-        <v>0.01118897109169278</v>
-      </c>
-      <c r="T4">
-        <v>0.01118897109169278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.08194666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.24584</v>
-      </c>
-      <c r="I5">
-        <v>0.356995568050465</v>
-      </c>
-      <c r="J5">
-        <v>0.356995568050465</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>62.12557999999999</v>
-      </c>
-      <c r="N5">
-        <v>186.37674</v>
-      </c>
-      <c r="O5">
-        <v>0.9736910227596813</v>
-      </c>
-      <c r="P5">
-        <v>0.9736910227596813</v>
-      </c>
-      <c r="Q5">
-        <v>5.090984195733332</v>
-      </c>
-      <c r="R5">
-        <v>45.81885776159999</v>
-      </c>
-      <c r="S5">
-        <v>0.3476033797757306</v>
-      </c>
-      <c r="T5">
-        <v>0.3476033797757306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.08194666666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.24584</v>
-      </c>
-      <c r="I6">
-        <v>0.356995568050465</v>
-      </c>
-      <c r="J6">
-        <v>0.356995568050465</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.5683613333333334</v>
-      </c>
-      <c r="N6">
-        <v>1.705084</v>
-      </c>
-      <c r="O6">
-        <v>0.008907897969731463</v>
-      </c>
-      <c r="P6">
-        <v>0.008907897969731463</v>
-      </c>
-      <c r="Q6">
-        <v>0.04657531672888889</v>
-      </c>
-      <c r="R6">
-        <v>0.41917785056</v>
-      </c>
-      <c r="S6">
-        <v>0.003180080095839867</v>
-      </c>
-      <c r="T6">
-        <v>0.003180080095839867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.08194666666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.24584</v>
-      </c>
-      <c r="I7">
-        <v>0.356995568050465</v>
-      </c>
-      <c r="J7">
-        <v>0.356995568050465</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.110262</v>
-      </c>
-      <c r="N7">
-        <v>3.330786</v>
-      </c>
-      <c r="O7">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="P7">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="Q7">
-        <v>0.09098227002666667</v>
-      </c>
-      <c r="R7">
-        <v>0.8188404302400001</v>
-      </c>
-      <c r="S7">
-        <v>0.006212108178894464</v>
-      </c>
-      <c r="T7">
-        <v>0.006212108178894464</v>
+        <v>0.5638972822803697</v>
       </c>
     </row>
   </sheetData>
